--- a/test_results/speed-data.xlsx
+++ b/test_results/speed-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1440,6 +1440,201 @@
         <v>12.48</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20:41:30</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>34.05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20:41:46</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>19.19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20:42:03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20:42:19</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>32.71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20:42:35</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20:42:51</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20:43:07</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20:43:23</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20:43:40</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20:43:57</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20:44:14</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20:44:30</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>03/04/2021</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20:44:46</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
